--- a/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
+++ b/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git\newparkcloud\controller\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B793D48B-7EE6-4585-8E39-4D2B4BDDBFB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD405233-6281-4F93-A219-91D04497F760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9C443E00-2A36-4246-B6A5-4E4FFECB5FC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{9C443E00-2A36-4246-B6A5-4E4FFECB5FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
   <si>
     <t>合同号</t>
   </si>
@@ -215,46 +215,175 @@
     <t>&lt;jx:forEach items="${plist}" var="t" varStatus="status"&gt;</t>
   </si>
   <si>
+    <t>&lt;jx:forEach items="${dlist}" var="t" varStatus="status"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.contractnumber}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.producten}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.unitprice1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.unit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.currency1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.purchaseamount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.signback1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.hscode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.drawback}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.dangerous}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.paymenttime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.marks}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.deliverystatus}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.invoicenumber}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.productresponsibility}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.numbers1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.deliverytime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.paymentstatus}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>订舱时间（提醒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>起运港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>货代公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鉴定费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>进仓单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>截单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>到仓截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>确认到仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>报关情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>提单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单据担当</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${dlist}" var="t" varStatus="status"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.forwardingcompany}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.appraisalcost}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.entrynumber}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.interceptiontime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.cutofftime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.warehouse}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.bill}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.billtime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.freight}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.premium}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.billresponsibility}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,9 +745,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7947F9ED-C82D-4044-99B0-AD73F35D5568}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -758,6 +905,27 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -831,55 +999,61 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>77</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>74</v>
+      </c>
+      <c r="S3" t="s">
+        <v>78</v>
       </c>
       <c r="T3" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -897,57 +1071,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7559A5A-1122-47F4-A260-79679BD20667}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="K1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="L1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="M1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="N1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -961,37 +1149,37 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">

--- a/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
+++ b/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git\newparkcloud\controller\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD405233-6281-4F93-A219-91D04497F760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19837CEB-FA8D-46B1-AFB4-E04E7A90105C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{9C443E00-2A36-4246-B6A5-4E4FFECB5FC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9C443E00-2A36-4246-B6A5-4E4FFECB5FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>合同号</t>
   </si>
@@ -119,271 +119,271 @@
     <t>${t.unitprice}</t>
   </si>
   <si>
+    <t>${t.numbers}</t>
+  </si>
+  <si>
+    <t>${t.salesamount}</t>
+  </si>
+  <si>
+    <t>${t.tradeterms}</t>
+  </si>
+  <si>
+    <t>${t.signback}</t>
+  </si>
+  <si>
+    <t>${t.saleresponsibility}</t>
+  </si>
+  <si>
+    <t>${t.order}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>产品中文名</t>
+  </si>
+  <si>
+    <t>供应商名称</t>
+  </si>
+  <si>
+    <t>采购单价</t>
+  </si>
+  <si>
+    <t>单价单位（数量）</t>
+  </si>
+  <si>
+    <t>采购币种</t>
+  </si>
+  <si>
+    <t>数量（新增）</t>
+  </si>
+  <si>
+    <t>采购金额</t>
+  </si>
+  <si>
+    <t>采购合同回签</t>
+  </si>
+  <si>
+    <t>海关编码</t>
+  </si>
+  <si>
+    <t>退税率</t>
+  </si>
+  <si>
+    <t>危险品</t>
+  </si>
+  <si>
+    <t>计划发货时间--删除</t>
+  </si>
+  <si>
+    <t>预计付款时间（提醒）</t>
+  </si>
+  <si>
+    <t>唛头</t>
+  </si>
+  <si>
+    <t>MSDS</t>
+  </si>
+  <si>
+    <t>发货状态</t>
+  </si>
+  <si>
+    <t>发票编号</t>
+  </si>
+  <si>
+    <t>付款状态</t>
+  </si>
+  <si>
+    <t>采购担当</t>
+  </si>
+  <si>
+    <t>付款时间</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${plist}" var="t" varStatus="status"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${dlist}" var="t" varStatus="status"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.contractnumber}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.producten}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.unitprice1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${t.unit}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.currency1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.purchaseamount}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.signback1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.hscode}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.drawback}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.dangerous}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.paymenttime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.marks}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.deliverystatus}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.invoicenumber}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.productresponsibility}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.numbers1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.deliverytime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.paymentstatus}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订舱时间（提醒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起运港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货代公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉴定费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进仓单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到仓截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认到仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报关情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提单时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单据担当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.forwardingcompany}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.appraisalcost}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.entrynumber}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.interceptiontime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.cutofftime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.warehouse}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.bill}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.billtime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.freight}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.premium}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.billresponsibility}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${t.currency}</t>
-  </si>
-  <si>
-    <t>${t.numbers}</t>
-  </si>
-  <si>
-    <t>${t.salesamount}</t>
-  </si>
-  <si>
-    <t>${t.tradeterms}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${t.collectionaccount}</t>
-  </si>
-  <si>
-    <t>${t.signback}</t>
-  </si>
-  <si>
-    <t>${t.saleresponsibility}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${t.payment}</t>
-  </si>
-  <si>
-    <t>${t.order}</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
-  </si>
-  <si>
-    <t>产品中文名</t>
-  </si>
-  <si>
-    <t>供应商名称</t>
-  </si>
-  <si>
-    <t>采购单价</t>
-  </si>
-  <si>
-    <t>单价单位（数量）</t>
-  </si>
-  <si>
-    <t>采购币种</t>
-  </si>
-  <si>
-    <t>数量（新增）</t>
-  </si>
-  <si>
-    <t>采购金额</t>
-  </si>
-  <si>
-    <t>采购合同回签</t>
-  </si>
-  <si>
-    <t>海关编码</t>
-  </si>
-  <si>
-    <t>退税率</t>
-  </si>
-  <si>
-    <t>危险品</t>
-  </si>
-  <si>
-    <t>计划发货时间--删除</t>
-  </si>
-  <si>
-    <t>预计付款时间（提醒）</t>
-  </si>
-  <si>
-    <t>唛头</t>
-  </si>
-  <si>
-    <t>MSDS</t>
-  </si>
-  <si>
-    <t>发货状态</t>
-  </si>
-  <si>
-    <t>发票编号</t>
-  </si>
-  <si>
-    <t>付款状态</t>
-  </si>
-  <si>
-    <t>采购担当</t>
-  </si>
-  <si>
-    <t>付款时间</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${plist}" var="t" varStatus="status"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${dlist}" var="t" varStatus="status"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.contractnumber}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.producten}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.unitprice1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.unit}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.currency1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.purchaseamount}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.signback1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.hscode}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.drawback}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.dangerous}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.paymenttime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.marks}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.deliverystatus}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.invoicenumber}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.productresponsibility}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.numbers1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.deliverytime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.paymentstatus}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订舱时间（提醒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起运港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货代公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鉴定费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进仓单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截单时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>到仓截止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认到仓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报关情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提单时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单据担当</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.forwardingcompany}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.appraisalcost}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.entrynumber}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.interceptiontime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.cutofftime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.warehouse}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.bill}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.billtime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.freight}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.premium}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.billresponsibility}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,7 +745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7947F9ED-C82D-4044-99B0-AD73F35D5568}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -857,39 +859,39 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="R3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" t="s">
         <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -932,133 +934,133 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>54</v>
-      </c>
-      <c r="R1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
         <v>63</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" t="s">
+      <c r="K3" t="s">
         <v>65</v>
       </c>
-      <c r="G3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>66</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+      <c r="N3" t="s">
         <v>67</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>68</v>
       </c>
-      <c r="K3" t="s">
+      <c r="Q3" t="s">
         <v>69</v>
       </c>
-      <c r="L3" t="s">
+      <c r="R3" t="s">
         <v>70</v>
       </c>
-      <c r="M3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="S3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" t="s">
         <v>71</v>
-      </c>
-      <c r="O3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>73</v>
-      </c>
-      <c r="R3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S3" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1071,7 +1073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7559A5A-1122-47F4-A260-79679BD20667}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1094,48 +1098,48 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>87</v>
-      </c>
-      <c r="K1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1149,42 +1153,42 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>94</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>95</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L3" t="s">
         <v>96</v>
       </c>
-      <c r="I3" t="s">
+      <c r="M3" t="s">
         <v>97</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
+++ b/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23020"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Git\newparkcloud\controller\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying/IdeaProjects/newparkcloud/controller/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19837CEB-FA8D-46B1-AFB4-E04E7A90105C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9C443E00-2A36-4246-B6A5-4E4FFECB5FC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
     <sheet name="采购" sheetId="2" r:id="rId2"/>
     <sheet name="单据" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
   <si>
     <t>合同号</t>
   </si>
@@ -110,9 +115,6 @@
     <t>${t.customer}</t>
   </si>
   <si>
-    <t>${t.account}</t>
-  </si>
-  <si>
     <t>${t.country}</t>
   </si>
   <si>
@@ -134,9 +136,6 @@
     <t>${t.saleresponsibility}</t>
   </si>
   <si>
-    <t>${t.order}</t>
-  </si>
-  <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
   <si>
@@ -211,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${t.producten}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${t.unitprice1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,14 +379,50 @@
   </si>
   <si>
     <t>${t.payment}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.linkmanname}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.firstordertime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.orders}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.realdate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.MSDS}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.chinaname}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.suppliernamecn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.bookingtime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.departure}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +436,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -427,8 +464,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -742,31 +780,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7947F9ED-C82D-4044-99B0-AD73F35D5568}">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -850,49 +886,58 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
-        <v>100</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" t="s">
-        <v>32</v>
-      </c>
       <c r="R3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" t="s">
         <v>101</v>
-      </c>
-      <c r="T3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -901,32 +946,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA9800B-52E7-4A91-A896-8B2C628279C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -934,133 +981,139 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>52</v>
-      </c>
-      <c r="T1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>62</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>63</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
         <v>64</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>65</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" t="s">
         <v>66</v>
       </c>
-      <c r="M3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
         <v>67</v>
       </c>
-      <c r="O3" t="s">
+      <c r="S3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" t="s">
-        <v>71</v>
+      <c r="U3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1070,27 +1123,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7559A5A-1122-47F4-A260-79679BD20667}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1098,48 +1149,48 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>84</v>
-      </c>
-      <c r="L1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1147,48 +1198,48 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
         <v>88</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>90</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>91</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>92</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>93</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>94</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>95</v>
-      </c>
-      <c r="L3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M3" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
+++ b/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
@@ -464,9 +464,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -783,161 +785,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="3"/>
+    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" style="3"/>
+    <col min="20" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M5" s="1"/>
+      <c r="M5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -949,170 +955,171 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.83203125" style="1"/>
+    <col min="20" max="20" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" style="3"/>
+    <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1126,119 +1133,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
     </row>

--- a/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
+++ b/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying/IdeaProjects/newparkcloud/controller/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wulala/WebstormProjects/newparkcloud/controller/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="9600" yWindow="4060" windowWidth="28800" windowHeight="17540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>订单要求</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${slist}" var="t" varStatus="status"&gt;</t>
-  </si>
-  <si>
     <t>${t.contractnumber}</t>
   </si>
   <si>
@@ -199,13 +196,6 @@
     <t>付款时间</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${plist}" var="t" varStatus="status"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${dlist}" var="t" varStatus="status"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${t.contractnumber}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,6 +405,18 @@
   </si>
   <si>
     <t>${t.departure}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${slist}" var="t"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${plist}" var="t"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${dlist}" var="t"&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +787,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -875,71 +879,71 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="R3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -955,7 +959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -988,139 +994,139 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="R3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="U3" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1133,7 +1139,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1157,97 +1165,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
+++ b/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wulala/WebstormProjects/newparkcloud/controller/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangm/IdeaProjects/newparkcloud/controller/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4060" windowWidth="28800" windowHeight="17540" activeTab="2"/>
+    <workbookView xWindow="38400" yWindow="-4840" windowWidth="21600" windowHeight="37940"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,12 +438,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -466,10 +460,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -785,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -799,7 +792,7 @@
     <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="3"/>
+    <col min="7" max="7" width="8.83203125" style="2"/>
     <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" style="1"/>
     <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
@@ -811,7 +804,7 @@
     <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="3"/>
+    <col min="19" max="19" width="8.83203125" style="2"/>
     <col min="20" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -834,7 +827,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -870,19 +863,19 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -901,7 +894,7 @@
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>97</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -945,9 +938,6 @@
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -978,14 +968,14 @@
     <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.83203125" style="1"/>
     <col min="20" max="20" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" style="3"/>
+    <col min="21" max="21" width="8.83203125" style="2"/>
     <col min="22" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1029,7 +1019,7 @@
       <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -1050,7 +1040,7 @@
       <c r="T1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1099,7 +1089,7 @@
       <c r="M3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>61</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -1120,7 +1110,7 @@
       <c r="T3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1139,23 +1129,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.83203125" style="1"/>
   </cols>
@@ -1164,7 +1154,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1179,10 +1169,10 @@
       <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1191,7 +1181,7 @@
       <c r="J1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1213,7 +1203,7 @@
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1228,10 +1218,10 @@
       <c r="F3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1240,7 +1230,7 @@
       <c r="J3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>89</v>
       </c>
       <c r="L3" s="1" t="s">

--- a/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
+++ b/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiangm/IdeaProjects/newparkcloud/controller/src/main/resources/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\newparkcloud\controller\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-4840" windowWidth="21600" windowHeight="37940"/>
+    <workbookView xWindow="38400" yWindow="-4845" windowWidth="21600" windowHeight="37935"/>
   </bookViews>
   <sheets>
     <sheet name="销售" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>合同号</t>
   </si>
@@ -368,55 +365,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${t.linkmanname}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.firstordertime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.orders}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.realdate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.MSDS}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.chinaname}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.suppliernamecn}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.bookingtime}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${t.departure}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${slist}" var="t"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${plist}" var="t"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${dlist}" var="t"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${t.payment}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${t.linkmanname}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.firstordertime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.orders}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.realdate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.MSDS}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.chinaname}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.suppliernamecn}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.bookingtime}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${t.departure}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${slist}" var="t"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${plist}" var="t"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;jx:forEach items="${dlist}" var="t"&gt;</t>
+    <t>${}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,32 +781,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="2"/>
-    <col min="8" max="8" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="2"/>
+    <col min="8" max="8" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="1"/>
     <col min="10" max="10" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="2"/>
-    <col min="20" max="16384" width="8.83203125" style="1"/>
+    <col min="18" max="18" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="2"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -870,9 +869,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -889,13 +888,13 @@
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>25</v>
@@ -928,10 +927,13 @@
         <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -953,30 +955,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" style="1"/>
-    <col min="20" max="20" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.83203125" style="2"/>
-    <col min="22" max="16384" width="8.83203125" style="1"/>
+    <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1"/>
+    <col min="20" max="20" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.875" style="2"/>
+    <col min="22" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -1046,7 +1048,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1054,10 +1056,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>53</v>
@@ -1096,7 +1098,7 @@
         <v>62</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>63</v>
@@ -1111,7 +1113,7 @@
         <v>65</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1133,21 +1135,21 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -1196,7 +1198,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1204,10 +1206,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>82</v>

--- a/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
+++ b/controller/src/main/resources/excel/goodsdeliverytemplate.xlsx
@@ -417,7 +417,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${}</t>
+    <t>${t.ep_date}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
